--- a/scrap_2/perfiles.xlsx
+++ b/scrap_2/perfiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Desktop\scrap_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Desktop\proyectos\scrap_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B1B179-713E-49C9-8179-99585313D02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C1F1B-5C42-485C-9A45-73695D17B666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
   <si>
     <t>marca</t>
   </si>
@@ -466,23 +466,15 @@
     <t>hombre</t>
   </si>
   <si>
-    <t xml:space="preserve"> L/17</t>
+    <t>L/17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -525,10 +517,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,8 +1028,530 @@
         <v>1430</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10111981</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10111981</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="1">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10111983</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="1">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10111983</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10111983</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="1">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1430</v>
+      </c>
+    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10111981</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10111981</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10111983</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="1">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10111983</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10111983</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="1">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10111981</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="1">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10111981</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10111983</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="1">
+        <v>40</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10111983</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="1">
+        <v>40</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10111983</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="1">
+        <v>40</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1430</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
